--- a/medicine/Mort/Décès_en_1954/Décès_en_1954.xlsx
+++ b/medicine/Mort/Décès_en_1954/Décès_en_1954.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1954</t>
+          <t>Décès_en_1954</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1954</t>
+          <t>Décès_en_1954</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,24 +540,97 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inconnu
-Célestine Aboulker, peintre et femme de lettres française (° 26 décembre 1874).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Célestine Aboulker, peintre et femme de lettres française (° 26 décembre 1874).
 Jeanne Bosc, peintre et sculptrice française (° 1865).
 Henriette Brossin de Polanska, peintre suisse (° 14 juillet 1878).
 Roland Coudon, peintre, dessinateur, graveur, illustrateur et affichiste de cinéma français (° 1897).
 Constantin Font, peintre, sculpteur et graveur français (° 11 janvier 1890).
 Jean Albert Grand-Carteret, peintre français (° 14 juin 1903).
 Joseph Jemain, musicien, organiste, chef d'orchestre et compositeur français (° 27 février 1864).
-Mihri Müşfik Hanım, peintre et princesse turque (° 26 février 1886).
-Janvier
-2 janvier : Vidal José de Oliveira Ramos, homme politique brésilien (° 24 octobre 1866).
+Mihri Müşfik Hanım, peintre et princesse turque (° 26 février 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Vidal José de Oliveira Ramos, homme politique brésilien (° 24 octobre 1866).
 11 janvier : Oscar Straus, compositeur autrichien (° 6 mars 1870).
 18 janvier : Sydney Greenstreet, acteur britannique (° 27 décembre 1879).
 20 janvier : Henri Pailler, peintre français (° 3 juin 1876).
 25 janvier : Sarah Chakko, présidente du Conseil œcuménique des Églises (COE) (° 13 février 1905).
-28 janvier : Abraham Oyanedel, homme politique chilien (° 25 mai 1874).
-Février
-1er février :
+28 janvier : Abraham Oyanedel, homme politique chilien (° 25 mai 1874).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février :
 Arduino Colato, peintre et dessinateur italien (° 17 novembre 1880).
 Fernando de Mello Vianna, homme d'État brésilien (° 15 mars 1878).
 9 février : Constantin Artachino, peintre roumain d'origine kurde (° 7 novembre 1870).
@@ -554,9 +639,43 @@
 Cécile Gimmi, sculptrice suisse (° 14 février 1886).
 Augustin Lesage, peintre français (° 9 août 1876).
 25 février : Auguste Perret, architecte français (° 12 février 1874).
-28 février : Gaston Durel, peintre orientaliste et décorateur français (° 18 février 1879).
-Mars
-2 mars : Louis Huvey, peintre, lithographe et affichiste français (° 4 juin 1868).
+28 février : Gaston Durel, peintre orientaliste et décorateur français (° 18 février 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Louis Huvey, peintre, lithographe et affichiste français (° 4 juin 1868).
 3 mars :
 Cesare Brambilla, coureur cycliste italien (° 3 mai 1885).
 George Wiley, coureur cycliste sur piste américain (° 1er mai 1881).
@@ -568,9 +687,43 @@
 17 mars : Victor Rousseau, sculpteur belge (° 15 décembre 1865).
 19 mars : Walter Braunfels, compositeur et pianiste allemand (° 19 décembre 1882).
 26 mars : Auguste Leroux, peintre et illustrateur français (° 14 avril 1871).
-31 mars : John Walter Jones, premier ministre de l'Île-du-Prince-Édouard (° 14 avril 1878).
-Avril
-3 avril : Aristides de Sousa Mendes, consul portugais (° 19 juillet 1885).
+31 mars : John Walter Jones, premier ministre de l'Île-du-Prince-Édouard (° 14 avril 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 avril : Aristides de Sousa Mendes, consul portugais (° 19 juillet 1885).
 5 avril : Claude Delvincourt, pianiste et compositeur français (° 12 janvier 1888).
 6 avril : Paul Charles, magistrat et homme politique belge (° 27 avril 1885).
 10 avril : Auguste Lumière, inventeur et pionnier français du cinéma (° 19 octobre 1862).
@@ -589,9 +742,43 @@
 Thorvald Ellegaard, coureur cycliste danois (° 7 mars 1877).
 Richard Schmitz, homme politique austro-hongrois puis autrichien (° 14 décembre 1885).
 28 avril : Léon Jouhaux, syndicaliste français (° 1er juillet 1879).
-30 avril : René Démaret, footballeur français (° 2 décembre 1922).
-Mai
-5 mai :
+30 avril : René Démaret, footballeur français (° 2 décembre 1922).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5 mai :
 Elisée Cavaillon, sculpteur et peintre français (° 8 mars 1873).
 Henri Laurens, sculpteur, peintre, dessinateur et graveur cubiste français (° 18 février 1885).
 9 mai : Giovanni Guarlotti, peintre italien (° 19 novembre 1869).
@@ -611,9 +798,43 @@
 Dmitri Koloupaïev, peintre, chef décorateur et directeur artistique russe puis soviétique (° 20 octobre 1883).
 Édouard Montpetit, avocat québécois (° 26 septembre 1881).
 29 mai : Anne O'Hare McCormick, journaliste américaine (° 16 mai 1880).
-31 mai : Jean Marquet, écrivain français (° 4 août 1883).
-Juin
-7 juin : Alan Turing, mathématicien britannique (° 23 juin 1912).
+31 mai : Jean Marquet, écrivain français (° 4 août 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>7 juin : Alan Turing, mathématicien britannique (° 23 juin 1912).
 9 juin : Abel Gerbaud, peintre français (° 26 décembre 1888).
 16 juin : Harry Sundberg, footballeur international suédois (° 9 janvier 1898).
 17 juin :
@@ -624,9 +845,43 @@
 20 juin : Josef Fanta, architecte, sculpteur et peintre austro-hongrois puis tchécoslovaque (° 7 décembre 1856).
 27 juin : Giovanni Rossignoli, coureur cycliste italien (° 3 décembre 1882).
 29 juin : H. Maurice Jacquet, compositeur et chef d'orchestre français (° 18 mars 1886).
-29 juin : Thorsten Svensson, footballeur international suédois (° 8 octobre 1901).
-Juillet
-7 juillet : Edmond Dyonnet, peintre français naturalisé canadien (° 25 juin 1859).
+29 juin : Thorsten Svensson, footballeur international suédois (° 8 octobre 1901).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7 juillet : Edmond Dyonnet, peintre français naturalisé canadien (° 25 juin 1859).
 13 juillet : Frida Khalo, peintre mexicaine (° 6 juillet 1907).
 14 juillet : Abderrahmen Mami, médecin tunisien (° 15 septembre 1904).
 16 juillet : Attilio Mussino, auteur de bande dessinée, illustrateur et peintre italien (° 25 janvier 1878).
@@ -634,9 +889,43 @@
 27 juillet : Diran Alexanian, violoncelliste et pédagogue arménien (° 2 avril 1881).
 28 juillet : John Trotter, homme d'affaires australien devenu homme politique aux Fidji (° vers 1888).
 29 juillet : Daniel L. Haynes, acteur et chanteur américain (° 6 juin 1889).
-31 juillet : Edgard Maxence, peintre symboliste français (° 17 septembre 1871).
-Août
-3 août :
+31 juillet : Edgard Maxence, peintre symboliste français (° 17 septembre 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3 août :
 Abel Bertram, peintre français (° 9 septembre 1871).
 Colette, romancière française (° 28 janvier 1873).
 10 août : Robert Adair, acteur américain d'origine britannique (° 3 janvier 1900).
@@ -645,9 +934,43 @@
 19 août : Alcide De Gasperi, homme politique italien (° 3 avril 1881).
 24 août : Getulio Vargas, homme politique brésilien (° 19 avril 1882).
 25 août : Gustave Van Belle, coureur cycliste belge (° 16 mars 1912).
-28 août : Marius Jacob, anarchiste, idéaliste, cambrioleur français (° 29 septembre 1879).
-Septembre
-5 septembre : Paul Fékété, scénariste et dialoguiste français (° 11 juillet 1881).
+28 août : Marius Jacob, anarchiste, idéaliste, cambrioleur français (° 29 septembre 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5 septembre : Paul Fékété, scénariste et dialoguiste français (° 11 juillet 1881).
 8 septembre : André Derain, peintre français (° 10 juin 1880).
 9 septembre : Antoine Fauré, coureur cycliste français (° 24 décembre 1883).
 10 septembre : René Rossignol, footballeur français (° 1920).
@@ -657,17 +980,85 @@
 Fausto Vagnetti, peintre italien (° 24 mars 1876).
 19 septembre : Tibor Harsányi, compositeur français d’origine hongroise (° 27 juin 1898).
 25 septembre : Vitaliano Brancati, écrivain italien (° 24 juillet 1907).
-30 septembre : Boleslas Biegas, peintre, sculpteur symboliste, écrivain et auteur dramatique franco-polonais (° 29 mars 1877).
-Octobre
-3 octobre : Herbert Prior, acteur britannique (° 2 juillet 1867).
+30 septembre : Boleslas Biegas, peintre, sculpteur symboliste, écrivain et auteur dramatique franco-polonais (° 29 mars 1877).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 octobre : Herbert Prior, acteur britannique (° 2 juillet 1867).
 5 octobre : Flor Alpaerts, compositeur belge (° 12 septembre 1876).
 6 octobre : Hakon Børresen, compositeur danois (° 2 juin 1876).
 10 octobre : Camille Boiry, peintre français (° 6 janvier 1871).
 13 octobre : Jeanne Bardey, sculptrice, graveuse et peintre française (° 12 avril 1872).
 23 octobre : Paul Hannaux, peintre, illustrateur et architecte d'intérieur français (° 15 septembre 1897).
-25 octobre : Mirzaagha Aliyev, acteur russe puis soviétique (° 1883).
-Novembre
-1er novembre : Charles-Henry Bizard, peintre français (° 14 novembre 1887).
+25 octobre : Mirzaagha Aliyev, acteur russe puis soviétique (° 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Charles-Henry Bizard, peintre français (° 14 novembre 1887).
 3 novembre : Henri Matisse, peintre français (° 31 décembre 1869).
 6 novembre : Zeddour Mohamed Brahim Kacem, homme politique algérien (° 2 février 1923).
 7 novembre : Chan Nak, premier ministre cambodgien (° 27 mai 1892).
@@ -683,9 +1074,43 @@
 21 novembre : Karol Rathaus, compositeur polonais (° 16 septembre 1895).
 28 novembre : Enrico Fermi, physicien italien (° 29 septembre 1901).
 29 novembre : George Robey, comédien et chanteur britannique (° 20 septembre 1869).
-30 novembre : Wilhelm Furtwängler, chef d'orchestre allemand (° 25 janvier 1886).
-Décembre
-5 décembre : Solomon Ioudovine, graphiste, peintre, graveur, photographe, illustrateur et ethnographe russe puis soviétique (° 27 octobre 1892).
+30 novembre : Wilhelm Furtwängler, chef d'orchestre allemand (° 25 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5 décembre : Solomon Ioudovine, graphiste, peintre, graveur, photographe, illustrateur et ethnographe russe puis soviétique (° 27 octobre 1892).
 6 décembre :
 Paul de Pidoll, peintre, xylographe et illustrateur de livres luxembourgeois (° 3 avril 1882).
 Anthony Thieme, peintre et graveur néerlandais naturalisé américain (° 20 février 1888).
@@ -700,9 +1125,43 @@
 René Iché, sculpteur français (° 21 janvier 1897).
 25 décembre : Rosario Scalero, violoniste, professeur de musique et compositeur italien (° 24 décembre 1870).
 29 décembre : Ivan Goriouchkine-Sorokopoudov, peintre, graphiste et professeur de peinture russe puis soviétique (° 5 novembre 1873).
-31 décembre : Peter van Anrooy, compositeur et chef d'orchestre néerlandais (° 13 octobre 1879).
-Date inconnue
-Mihri Müşfik Hanım, princesse abkhaze et peintre turque (° 26 février 1886).
+31 décembre : Peter van Anrooy, compositeur et chef d'orchestre néerlandais (° 13 octobre 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1954</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1954</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mihri Müşfik Hanım, princesse abkhaze et peintre turque (° 26 février 1886).
 Tulio Tascón, avocat, homme politique, historien, écrivain et académique colombien (° 29 janvier 1888).
 			Auguste Leroux (à gauche) en 1903
 			Auguste Lumière autour de 1950
